--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43301,6 +43301,41 @@
         <v>552000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>11900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43336,6 +43336,43 @@
         <v>11900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43373,6 +43373,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43408,6 +43408,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43443,6 +43443,43 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43480,6 +43480,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43517,6 +43517,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43552,6 +43552,43 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43589,6 +43589,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>14300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43624,6 +43624,41 @@
         <v>14300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43659,6 +43659,41 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>177900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43694,6 +43694,43 @@
         <v>177900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43731,6 +43731,76 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43801,6 +43801,76 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>215900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43871,6 +43871,41 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>43000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43906,6 +43906,41 @@
         <v>43000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43941,6 +43941,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>20300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43976,6 +43976,41 @@
         <v>20300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>16300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44011,6 +44011,76 @@
         <v>16300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44081,6 +44081,41 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>12800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44116,6 +44116,41 @@
         <v>12800</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>50900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2508"/>
+  <dimension ref="A1:I2509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88496,6 +88496,41 @@
         <v>50900</v>
       </c>
     </row>
+    <row r="2509">
+      <c r="A2509" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2509" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G2509" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="H2509" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="I2509" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2509"/>
+  <dimension ref="A1:I2510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88531,6 +88531,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2510">
+      <c r="A2510" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2510" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G2510" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H2510" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I2510" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2510"/>
+  <dimension ref="A1:I2511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88566,6 +88566,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="2511">
+      <c r="A2511" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2511" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="F2511" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G2511" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="H2511" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I2511" t="n">
+        <v>1600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2511"/>
+  <dimension ref="A1:I2512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88601,6 +88601,41 @@
         <v>1600</v>
       </c>
     </row>
+    <row r="2512">
+      <c r="A2512" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2512" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="G2512" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="H2512" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="I2512" t="n">
+        <v>64000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2512"/>
+  <dimension ref="A1:I2513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88636,6 +88636,41 @@
         <v>64000</v>
       </c>
     </row>
+    <row r="2513">
+      <c r="A2513" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2513" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="G2513" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="H2513" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I2513" t="n">
+        <v>32100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2513"/>
+  <dimension ref="A1:I2514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88671,6 +88671,41 @@
         <v>32100</v>
       </c>
     </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2514" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H2514" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="I2514" t="n">
+        <v>84500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2514"/>
+  <dimension ref="A1:I2515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88706,6 +88706,41 @@
         <v>84500</v>
       </c>
     </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2515" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H2515" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>130800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2515"/>
+  <dimension ref="A1:I2516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88741,6 +88741,41 @@
         <v>130800</v>
       </c>
     </row>
+    <row r="2516">
+      <c r="A2516" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2516" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="H2516" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2516" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2516"/>
+  <dimension ref="A1:I2517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88776,6 +88776,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="2517">
+      <c r="A2517" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2517" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F2517" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G2517" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="H2517" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2517" t="n">
+        <v>18600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2517"/>
+  <dimension ref="A1:I2518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88811,6 +88811,41 @@
         <v>18600</v>
       </c>
     </row>
+    <row r="2518">
+      <c r="A2518" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2518" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="F2518" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="G2518" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H2518" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="I2518" t="n">
+        <v>117900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2518"/>
+  <dimension ref="A1:I2519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88846,6 +88846,41 @@
         <v>117900</v>
       </c>
     </row>
+    <row r="2519">
+      <c r="A2519" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2519" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F2519" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G2519" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="H2519" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2519" t="n">
+        <v>19200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2519"/>
+  <dimension ref="A1:I2520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88881,6 +88881,41 @@
         <v>19200</v>
       </c>
     </row>
+    <row r="2520">
+      <c r="A2520" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2520" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2520" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F2520" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="G2520" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="H2520" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="I2520" t="n">
+        <v>70800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2520"/>
+  <dimension ref="A1:I2521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88916,6 +88916,41 @@
         <v>70800</v>
       </c>
     </row>
+    <row r="2521">
+      <c r="A2521" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2521" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2521" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F2521" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="G2521" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H2521" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="I2521" t="n">
+        <v>48700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2521"/>
+  <dimension ref="A1:I2522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88951,6 +88951,41 @@
         <v>48700</v>
       </c>
     </row>
+    <row r="2522">
+      <c r="A2522" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2522" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2522" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F2522" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G2522" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H2522" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I2522" t="n">
+        <v>34000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5517.xlsx
+++ b/data/5517.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2522"/>
+  <dimension ref="A1:I2523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88986,6 +88986,41 @@
         <v>34000</v>
       </c>
     </row>
+    <row r="2523">
+      <c r="A2523" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D2523" t="inlineStr">
+        <is>
+          <t>SHANG</t>
+        </is>
+      </c>
+      <c r="E2523" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F2523" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G2523" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="H2523" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="I2523" t="n">
+        <v>28800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
